--- a/ICEV to EV turnover spreadsheet for ethanol in US.xlsx
+++ b/ICEV to EV turnover spreadsheet for ethanol in US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert Brecha\Documents\Papers\FEW Nexus and EVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F151C056-59DB-4BEA-8E8E-180324CB6C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4393A946-414F-4930-8548-990831D4B0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61845" yWindow="2085" windowWidth="13050" windowHeight="8595" tabRatio="741" firstSheet="4" activeTab="7" xr2:uid="{3E22B0E1-9EC9-45BE-A079-E3775D78543D}"/>
+    <workbookView xWindow="59175" yWindow="1185" windowWidth="17595" windowHeight="9990" tabRatio="741" firstSheet="1" activeTab="4" xr2:uid="{3E22B0E1-9EC9-45BE-A079-E3775D78543D}"/>
   </bookViews>
   <sheets>
     <sheet name="main calculations" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
@@ -876,6 +876,9 @@
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="173" formatCode="0;\-0;0;@"/>
+    <numFmt numFmtId="175" formatCode="0;\−0;0;@"/>
+    <numFmt numFmtId="177" formatCode="0.00;\−0.00;0.00;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1029,7 +1032,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1114,6 +1117,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2143,6 +2149,1250 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EV fraction in fleet</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data for plots'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25% sales by 2030</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'data for plots'!$A$3:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'data for plots'!$B$3:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.6508690087574258E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4708506588913845E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2452500356977505E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3720425572586961E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2201438170895023E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6667055564629841E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3310519014840209E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0951191193245801E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5038958740261223E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7754056558723043E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8960067532803648E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7545805411347929E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1343608370684053E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.454106717866418E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8486018361582101E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3342854583489201E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9302714556426957E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6583117585069568E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5424770578946248E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6084324164491217E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8821883796566757E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.3882502676975779E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1014718830629068</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.12172815849522044</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14469368995987258</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17029261332991397</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1983204026690143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22845006919679811</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26025576310952242</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2932497450627613</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32692503891761698</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.36079522210538006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.39442487937667103</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.42744788329255179</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.4595740974554719</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.49058720431510583</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.52033698330901479</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.54872897037989199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.57571360339845079</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60127611897935185</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.62542781131664604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5E4-477B-926E-25ED1BDB3C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data for plots'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50% sales by 2030</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'data for plots'!$A$3:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'data for plots'!$C$3:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.6508690087574258E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4708506588913845E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2452500356977505E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3720425572586961E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2201438170895023E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6667055564629841E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3310519014840209E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0951191193245801E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5038958740261223E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7754056558723043E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8960067532803648E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7545805411347929E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3070901685604753E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8656377786147531E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5866549361399021E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5120034198014155E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6886003519801885E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1653645118630938E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9878400422074239E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10190506862244837</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12787862243274975</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15766728909261232</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19083061258890355</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22665668438340378</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26426511691230625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.30274106437055709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.34125392640000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.37912974705803459</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.41587323241689261</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.45115399152542379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.48477574433787984</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.51664237970403393</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.54672809084786467</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.57505396902612294</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6016708847175366</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.62664751793429863</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.65006225004109996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.67199780707190371</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.69253780198352455</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.71176455999672772</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.72975779788656769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5E4-477B-926E-25ED1BDB3C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data for plots'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75% sales by 2030</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'data for plots'!$A$3:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'data for plots'!$D$3:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.6508690087574258E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4708506588913845E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2452500356977505E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3720425572586961E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2201438170895023E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6667055564629841E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3310519014840209E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0951191193245801E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5038958740261223E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7754056558723043E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8960067532803648E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7545805411347929E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5325005742171598E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4153076371697974E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5927683900739041E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1409402663309796E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1331807897909286E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6237884573654467E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1262783256081321</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16105155559684745</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19959271202904197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.24056144160817905</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.28254959225543791</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32435069999015381</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36508766060721715</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.40420779572729443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.44141197452330599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.4765739204032135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50967509539633948</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.54075967536020786</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56990591341142305</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.59720881150118532</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.62276998220085189</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64669188391922638</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66907464832949082</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.69001441883457371</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.70960255853703358</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.72792535204080289</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74506398291632681</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76109466089658095</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77608882652208433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A5E4-477B-926E-25ED1BDB3C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="536223936"/>
+        <c:axId val="536216032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="536223936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2050"/>
+          <c:min val="2020"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536216032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="536216032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Share of EVs in LDV fleet</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536223936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -3366,7 +4616,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4222,6 +5472,7 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4886,7 +6137,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5427,7 +6678,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6219,7 +7470,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7463,7 +8714,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11224,6 +12475,530 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Irrigation water change</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>irrigation!$B$20:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irrigation!$C$20:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>0;\−0;0;@</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.59787462963713911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3618007961151286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2865553118302619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.3969858939250632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.7062270820170014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.2083132113696422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.8746787578063593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.6579704643530011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11.502545859355415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-13.356393644342019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E05-4CCD-866F-D73C3B76350C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1104516816"/>
+        <c:axId val="1104516336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1104516816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2050"/>
+          <c:min val="2025"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1104516336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1104516336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Water use reduction [Gm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0;\−0;0;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1104516816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Fertilizer use reduction</a:t>
             </a:r>
           </a:p>
@@ -11981,7 +13756,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%;\−0%;0%;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12105,7 +13880,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12890,7 +14665,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
+        <c:numFmt formatCode="[$$-409]#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13001,7 +14776,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13586,6 +15361,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -13664,7 +15440,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="0"/>
+        <c:numFmt formatCode="[$$-409]###0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13775,7 +15551,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15167,7 +16943,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15266,1250 +17042,6 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1600"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>EV fraction in fleet</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'data for plots'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>25% sales by 2030</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="57150" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'data for plots'!$A$3:$A$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'data for plots'!$B$3:$B$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1.6508690087574258E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4708506588913845E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2452500356977505E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3720425572586961E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2201438170895023E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6667055564629841E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3310519014840209E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0951191193245801E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5038958740261223E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7754056558723043E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.8960067532803648E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.7545805411347929E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1343608370684053E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.454106717866418E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.8486018361582101E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.3342854583489201E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9302714556426957E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.6583117585069568E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.5424770578946248E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.6084324164491217E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.8821883796566757E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.3882502676975779E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.1014718830629068</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.12172815849522044</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.14469368995987258</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.17029261332991397</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1983204026690143</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.22845006919679811</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.26025576310952242</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.2932497450627613</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.32692503891761698</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.36079522210538006</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.39442487937667103</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.42744788329255179</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.4595740974554719</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.49058720431510583</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.52033698330901479</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.54872897037989199</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.57571360339845079</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.60127611897935185</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.62542781131664604</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5E4-477B-926E-25ED1BDB3C3C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'data for plots'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50% sales by 2030</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="57150" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="dashDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'data for plots'!$A$3:$A$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'data for plots'!$C$3:$C$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1.6508690087574258E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4708506588913845E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2452500356977505E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3720425572586961E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2201438170895023E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6667055564629841E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3310519014840209E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0951191193245801E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5038958740261223E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7754056558723043E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.8960067532803648E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.7545805411347929E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3070901685604753E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8656377786147531E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.5866549361399021E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.5120034198014155E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.6886003519801885E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.1653645118630938E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.9878400422074239E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.10190506862244837</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.12787862243274975</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.15766728909261232</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.19083061258890355</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.22665668438340378</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.26426511691230625</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.30274106437055709</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.34125392640000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.37912974705803459</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.41587323241689261</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.45115399152542379</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.48477574433787984</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.51664237970403393</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.54672809084786467</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.57505396902612294</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.6016708847175366</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.62664751793429863</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.65006225004109996</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.67199780707190371</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.69253780198352455</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.71176455999672772</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.72975779788656769</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A5E4-477B-926E-25ED1BDB3C3C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'data for plots'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>75% sales by 2030</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="57150" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'data for plots'!$A$3:$A$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'data for plots'!$D$3:$D$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1.6508690087574258E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4708506588913845E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2452500356977505E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3720425572586961E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2201438170895023E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6667055564629841E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3310519014840209E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0951191193245801E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5038958740261223E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7754056558723043E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.8960067532803648E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.7545805411347929E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5325005742171598E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4153076371697974E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5927683900739041E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.1409402663309796E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.1331807897909286E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.6237884573654467E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1262783256081321</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.16105155559684745</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.19959271202904197</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.24056144160817905</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.28254959225543791</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.32435069999015381</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.36508766060721715</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.40420779572729443</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.44141197452330599</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.4765739204032135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.50967509539633948</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.54075967536020786</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.56990591341142305</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.59720881150118532</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.62276998220085189</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.64669188391922638</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.66907464832949082</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.69001441883457371</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.70960255853703358</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.72792535204080289</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.74506398291632681</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.76109466089658095</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.77608882652208433</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A5E4-477B-926E-25ED1BDB3C3C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="536223936"/>
-        <c:axId val="536216032"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="536223936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2050"/>
-          <c:min val="2020"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="536216032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="536216032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Share of EVs in LDV fleet</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="536223936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -16763,6 +17295,46 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20714,6 +21286,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="283">
   <cs:axisTitle>
@@ -22781,7 +23869,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -22808,8 +23896,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -22910,7 +23998,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -22942,10 +24030,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -23051,14 +24139,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -23176,17 +24259,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -23282,6 +24354,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -24344,7 +25427,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -24371,8 +25454,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24473,7 +25556,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -24505,10 +25588,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -24614,9 +25697,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -24734,6 +25822,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -24829,17 +25928,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -24872,7 +25960,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25398,6 +26486,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82329F9E-04B7-C2C2-9FDA-D785A5E7DAAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -25437,7 +26566,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -25480,7 +26609,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -25523,7 +26652,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -25566,7 +26695,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -26157,9 +27286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77357348-F279-4AF7-8713-281DB9B155A7}">
   <dimension ref="A2:BI50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH10" sqref="BH10:BH50"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK41" sqref="AK41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -29146,7 +30275,7 @@
         <v>0.10844665211241544</v>
       </c>
       <c r="AJ25" s="24"/>
-      <c r="AK25" s="2">
+      <c r="AK25" s="48">
         <v>0</v>
       </c>
       <c r="AN25" s="21">
@@ -29317,8 +30446,8 @@
         <v>0.32490119788594446</v>
       </c>
       <c r="AJ26" s="24"/>
-      <c r="AK26" s="2">
-        <f t="shared" ref="AK26:AK50" si="43">-IF((AVERAGE($AD$24:$AD$26)-AD26)&lt;$AK$7,(AVERAGE($AC$24:$AC$26)-AC26)*$AK$5,$AK$7*$AK$5*$AC$7/1000)</f>
+      <c r="AK26" s="48">
+        <f>-(IF((AVERAGE($AD$24:$AD$26)-AD26)&lt;$AK$7,(AVERAGE($AC$24:$AC$26)-AC26)*$AK$5,$AK$7*$AK$5*$AC$7/1000))</f>
         <v>-0.59787462963713911</v>
       </c>
       <c r="AN26" s="21">
@@ -29489,8 +30618,8 @@
         <v>0.51851557710100626</v>
       </c>
       <c r="AJ27" s="24"/>
-      <c r="AK27" s="2">
-        <f t="shared" si="43"/>
+      <c r="AK27" s="48">
+        <f t="shared" ref="AK27:AK50" si="43">-(IF((AVERAGE($AD$24:$AD$26)-AD27)&lt;$AK$7,(AVERAGE($AC$24:$AC$26)-AC27)*$AK$5,$AK$7*$AK$5*$AC$7/1000))</f>
         <v>-1.3618007961151286</v>
       </c>
       <c r="AN27" s="21">
@@ -29661,7 +30790,7 @@
         <v>0.62051273671729856</v>
       </c>
       <c r="AJ28" s="24"/>
-      <c r="AK28" s="2">
+      <c r="AK28" s="48">
         <f t="shared" si="43"/>
         <v>-2.2865553118302619</v>
       </c>
@@ -29833,7 +30962,7 @@
         <v>0.66727872776760178</v>
       </c>
       <c r="AJ29" s="24"/>
-      <c r="AK29" s="2">
+      <c r="AK29" s="48">
         <f t="shared" si="43"/>
         <v>-3.3969858939250632</v>
       </c>
@@ -30005,7 +31134,7 @@
         <v>0.68285767404498121</v>
       </c>
       <c r="AJ30" s="24"/>
-      <c r="AK30" s="2">
+      <c r="AK30" s="48">
         <f t="shared" si="43"/>
         <v>-4.7062270820170014</v>
       </c>
@@ -30177,7 +31306,7 @@
         <v>0.68227786614034647</v>
       </c>
       <c r="AJ31" s="24"/>
-      <c r="AK31" s="2">
+      <c r="AK31" s="48">
         <f t="shared" si="43"/>
         <v>-6.2083132113696422</v>
       </c>
@@ -30349,7 +31478,7 @@
         <v>0.67441033094140612</v>
       </c>
       <c r="AJ32" s="24"/>
-      <c r="AK32" s="2">
+      <c r="AK32" s="48">
         <f t="shared" si="43"/>
         <v>-7.8746787578063593</v>
       </c>
@@ -30521,7 +31650,7 @@
         <v>0.66413331078450888</v>
       </c>
       <c r="AJ33" s="24"/>
-      <c r="AK33" s="2">
+      <c r="AK33" s="48">
         <f t="shared" si="43"/>
         <v>-9.6579704643530011</v>
       </c>
@@ -30693,7 +31822,7 @@
         <v>0.65387073568402709</v>
       </c>
       <c r="AJ34" s="24"/>
-      <c r="AK34" s="2">
+      <c r="AK34" s="48">
         <f t="shared" si="43"/>
         <v>-11.502545859355415</v>
       </c>
@@ -30865,7 +31994,7 @@
         <v>0.6446402853800457</v>
       </c>
       <c r="AJ35" s="24"/>
-      <c r="AK35" s="2">
+      <c r="AK35" s="48">
         <f t="shared" si="43"/>
         <v>-13.356393644342019</v>
       </c>
@@ -31037,7 +32166,7 @@
         <v>0.63672920963272128</v>
       </c>
       <c r="AJ36" s="24"/>
-      <c r="AK36" s="2">
+      <c r="AK36" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -31209,7 +32338,7 @@
         <v>0.63009446462629481</v>
       </c>
       <c r="AJ37" s="24"/>
-      <c r="AK37" s="2">
+      <c r="AK37" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -31381,7 +32510,7 @@
         <v>0.62457440349349236</v>
       </c>
       <c r="AJ38" s="24"/>
-      <c r="AK38" s="2">
+      <c r="AK38" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -31553,7 +32682,7 @@
         <v>0.61998683272837352</v>
       </c>
       <c r="AJ39" s="24"/>
-      <c r="AK39" s="2">
+      <c r="AK39" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -31725,7 +32854,7 @@
         <v>0.6161672176847971</v>
       </c>
       <c r="AJ40" s="24"/>
-      <c r="AK40" s="2">
+      <c r="AK40" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -31897,7 +33026,7 @@
         <v>0.61297919657293443</v>
       </c>
       <c r="AJ41" s="24"/>
-      <c r="AK41" s="2">
+      <c r="AK41" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -32069,7 +33198,7 @@
         <v>0.61031394787874405</v>
       </c>
       <c r="AJ42" s="24"/>
-      <c r="AK42" s="2">
+      <c r="AK42" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -32241,7 +33370,7 @@
         <v>0.60808596384956448</v>
       </c>
       <c r="AJ43" s="24"/>
-      <c r="AK43" s="2">
+      <c r="AK43" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -32413,7 +33542,7 @@
         <v>0.60622831119933185</v>
       </c>
       <c r="AJ44" s="24"/>
-      <c r="AK44" s="2">
+      <c r="AK44" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -32585,7 +33714,7 @@
         <v>0.6046884537277567</v>
       </c>
       <c r="AJ45" s="24"/>
-      <c r="AK45" s="2">
+      <c r="AK45" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -32757,7 +33886,7 @@
         <v>0.6034248880817018</v>
       </c>
       <c r="AJ46" s="24"/>
-      <c r="AK46" s="2">
+      <c r="AK46" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -32929,7 +34058,7 @@
         <v>0.60240454283542433</v>
       </c>
       <c r="AJ47" s="24"/>
-      <c r="AK47" s="2">
+      <c r="AK47" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -33101,7 +34230,7 @@
         <v>0.6016008051884405</v>
       </c>
       <c r="AJ48" s="24"/>
-      <c r="AK48" s="2">
+      <c r="AK48" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -33273,7 +34402,7 @@
         <v>0.60099203492015507</v>
       </c>
       <c r="AJ49" s="24"/>
-      <c r="AK49" s="2">
+      <c r="AK49" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -33445,7 +34574,7 @@
         <v>0.60056044644652484</v>
       </c>
       <c r="AJ50" s="24"/>
-      <c r="AK50" s="2">
+      <c r="AK50" s="48">
         <f t="shared" si="43"/>
         <v>-17.954999999999998</v>
       </c>
@@ -33527,8 +34656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD5A83D-C9C7-4E46-B802-00CC46BCC90B}">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView topLeftCell="R18" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -38466,8 +39595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F33E12F-8379-4652-8F12-4653E3A8BEA1}">
   <dimension ref="B2:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -38585,7 +39714,7 @@
         <f>'main calculations'!A25</f>
         <v>2025</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="49">
         <f>'main calculations'!AK25</f>
         <v>0</v>
       </c>
@@ -38595,7 +39724,7 @@
         <f>'main calculations'!A26</f>
         <v>2026</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="49">
         <f>'main calculations'!AK26</f>
         <v>-0.59787462963713911</v>
       </c>
@@ -38605,7 +39734,7 @@
         <f>'main calculations'!A27</f>
         <v>2027</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="49">
         <f>'main calculations'!AK27</f>
         <v>-1.3618007961151286</v>
       </c>
@@ -38615,7 +39744,7 @@
         <f>'main calculations'!A28</f>
         <v>2028</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="49">
         <f>'main calculations'!AK28</f>
         <v>-2.2865553118302619</v>
       </c>
@@ -38625,7 +39754,7 @@
         <f>'main calculations'!A29</f>
         <v>2029</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="49">
         <f>'main calculations'!AK29</f>
         <v>-3.3969858939250632</v>
       </c>
@@ -38635,7 +39764,7 @@
         <f>'main calculations'!A30</f>
         <v>2030</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="49">
         <f>'main calculations'!AK30</f>
         <v>-4.7062270820170014</v>
       </c>
@@ -38645,7 +39774,7 @@
         <f>'main calculations'!A31</f>
         <v>2031</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="49">
         <f>'main calculations'!AK31</f>
         <v>-6.2083132113696422</v>
       </c>
@@ -38655,7 +39784,7 @@
         <f>'main calculations'!A32</f>
         <v>2032</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="49">
         <f>'main calculations'!AK32</f>
         <v>-7.8746787578063593</v>
       </c>
@@ -38665,7 +39794,7 @@
         <f>'main calculations'!A33</f>
         <v>2033</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="49">
         <f>'main calculations'!AK33</f>
         <v>-9.6579704643530011</v>
       </c>
@@ -38675,7 +39804,7 @@
         <f>'main calculations'!A34</f>
         <v>2034</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="49">
         <f>'main calculations'!AK34</f>
         <v>-11.502545859355415</v>
       </c>
@@ -38685,7 +39814,7 @@
         <f>'main calculations'!A35</f>
         <v>2035</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="49">
         <f>'main calculations'!AK35</f>
         <v>-13.356393644342019</v>
       </c>
@@ -38695,7 +39824,7 @@
         <f>'main calculations'!A36</f>
         <v>2036</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="49">
         <f>'main calculations'!AK36</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38705,7 +39834,7 @@
         <f>'main calculations'!A37</f>
         <v>2037</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="49">
         <f>'main calculations'!AK37</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38715,7 +39844,7 @@
         <f>'main calculations'!A38</f>
         <v>2038</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="49">
         <f>'main calculations'!AK38</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38725,7 +39854,7 @@
         <f>'main calculations'!A39</f>
         <v>2039</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="49">
         <f>'main calculations'!AK39</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38735,7 +39864,7 @@
         <f>'main calculations'!A40</f>
         <v>2040</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="49">
         <f>'main calculations'!AK40</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38745,7 +39874,7 @@
         <f>'main calculations'!A41</f>
         <v>2041</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="49">
         <f>'main calculations'!AK41</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38755,7 +39884,7 @@
         <f>'main calculations'!A42</f>
         <v>2042</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="49">
         <f>'main calculations'!AK42</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38765,7 +39894,7 @@
         <f>'main calculations'!A43</f>
         <v>2043</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="49">
         <f>'main calculations'!AK43</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38775,7 +39904,7 @@
         <f>'main calculations'!A44</f>
         <v>2044</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="49">
         <f>'main calculations'!AK44</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38785,7 +39914,7 @@
         <f>'main calculations'!A45</f>
         <v>2045</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="49">
         <f>'main calculations'!AK45</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38795,7 +39924,7 @@
         <f>'main calculations'!A46</f>
         <v>2046</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="49">
         <f>'main calculations'!AK46</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38805,7 +39934,7 @@
         <f>'main calculations'!A47</f>
         <v>2047</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="49">
         <f>'main calculations'!AK47</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38815,7 +39944,7 @@
         <f>'main calculations'!A48</f>
         <v>2048</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="49">
         <f>'main calculations'!AK48</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38825,7 +39954,7 @@
         <f>'main calculations'!A49</f>
         <v>2049</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="49">
         <f>'main calculations'!AK49</f>
         <v>-17.954999999999998</v>
       </c>
@@ -38835,13 +39964,14 @@
         <f>'main calculations'!A50</f>
         <v>2050</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="49">
         <f>'main calculations'!AK50</f>
         <v>-17.954999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38849,8 +39979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B49F839-61DE-409C-B6E5-D05845F83A16}">
   <dimension ref="B2:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -38976,15 +40106,15 @@
         <f>'main calculations'!A25</f>
         <v>2025</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="50">
         <f>'main calculations'!AN25</f>
         <v>-3.0216249761971935E-3</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="50">
         <f>'main calculations'!AO25</f>
         <v>-3.4009631766721664E-3</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="50">
         <f>'main calculations'!AP25</f>
         <v>-1.7909327366518325E-3</v>
       </c>
@@ -38994,15 +40124,15 @@
         <f>'main calculations'!A26</f>
         <v>2026</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="50">
         <f>'main calculations'!AN26</f>
         <v>-6.3065708244147258E-3</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="50">
         <f>'main calculations'!AO26</f>
         <v>-7.0983048240165743E-3</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="50">
         <f>'main calculations'!AP26</f>
         <v>-3.7379371147746856E-3</v>
       </c>
@@ -39012,15 +40142,15 @@
         <f>'main calculations'!A27</f>
         <v>2027</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="50">
         <f>'main calculations'!AN27</f>
         <v>-9.930257137418871E-3</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="50">
         <f>'main calculations'!AO27</f>
         <v>-1.1176912795363234E-2</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="50">
         <f>'main calculations'!AP27</f>
         <v>-5.8857147167072346E-3</v>
       </c>
@@ -39030,15 +40160,15 @@
         <f>'main calculations'!A28</f>
         <v>2028</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="50">
         <f>'main calculations'!AN28</f>
         <v>-1.3967463120773882E-2</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="50">
         <f>'main calculations'!AO28</f>
         <v>-1.5720954161909998E-2</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="50">
         <f>'main calculations'!AP28</f>
         <v>-8.278587563984521E-3</v>
       </c>
@@ -39048,15 +40178,15 @@
         <f>'main calculations'!A29</f>
         <v>2029</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="50">
         <f>'main calculations'!AN29</f>
         <v>-1.8477145575426152E-2</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="50">
         <f>'main calculations'!AO29</f>
         <v>-2.079678722775238E-2</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="50">
         <f>'main calculations'!AP29</f>
         <v>-1.0951499657167477E-2</v>
       </c>
@@ -39066,15 +40196,15 @@
         <f>'main calculations'!A30</f>
         <v>2030</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="50">
         <f>'main calculations'!AN30</f>
         <v>-2.3481985525121474E-2</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="50">
         <f>'main calculations'!AO30</f>
         <v>-2.6429940417885652E-2</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="50">
         <f>'main calculations'!AP30</f>
         <v>-1.3917894156227019E-2</v>
       </c>
@@ -39084,15 +40214,15 @@
         <f>'main calculations'!A31</f>
         <v>2031</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="50">
         <f>'main calculations'!AN31</f>
         <v>-2.8949088718828495E-2</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="50">
         <f>'main calculations'!AO31</f>
         <v>-3.2583389899980129E-2</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="50">
         <f>'main calculations'!AP31</f>
         <v>-1.7158274468606557E-2</v>
       </c>
@@ -39102,15 +40232,15 @@
         <f>'main calculations'!A32</f>
         <v>2032</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="50">
         <f>'main calculations'!AN32</f>
         <v>-3.4782843842058125E-2</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="50">
         <f>'main calculations'!AO32</f>
         <v>-3.914952120751132E-2</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="50">
         <f>'main calculations'!AP32</f>
         <v>-2.0615971274168192E-2</v>
       </c>
@@ -39120,15 +40250,15 @@
         <f>'main calculations'!A33</f>
         <v>2033</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="50">
         <f>'main calculations'!AN33</f>
         <v>-4.0838695094101027E-2</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="50">
         <f>'main calculations'!AO33</f>
         <v>-4.5965630841845323E-2</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="50">
         <f>'main calculations'!AP33</f>
         <v>-2.4205305602886633E-2</v>
       </c>
@@ -39138,15 +40268,15 @@
         <f>'main calculations'!A34</f>
         <v>2034</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="50">
         <f>'main calculations'!AN34</f>
         <v>-4.6954667875172162E-2</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="50">
         <f>'main calculations'!AO34</f>
         <v>-5.2849409729631008E-2</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="50">
         <f>'main calculations'!AP34</f>
         <v>-2.7830274272518458E-2</v>
       </c>
@@ -39156,15 +40286,15 @@
         <f>'main calculations'!A35</f>
         <v>2035</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="50">
         <f>'main calculations'!AN35</f>
         <v>-5.2984985987470506E-2</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="50">
         <f>'main calculations'!AO35</f>
         <v>-5.9636780765118337E-2</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="50">
         <f>'main calculations'!AP35</f>
         <v>-3.1404474977376147E-2</v>
       </c>
@@ -39174,15 +40304,15 @@
         <f>'main calculations'!A36</f>
         <v>2036</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="50">
         <f>'main calculations'!AN36</f>
         <v>-5.8820395717100613E-2</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="50">
         <f>'main calculations'!AO36</f>
         <v>-6.6204774400199826E-2</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="50">
         <f>'main calculations'!AP36</f>
         <v>-3.4863152476700972E-2</v>
       </c>
@@ -39192,15 +40322,15 @@
         <f>'main calculations'!A37</f>
         <v>2037</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="50">
         <f>'main calculations'!AN37</f>
         <v>-6.4391662788823092E-2</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="50">
         <f>'main calculations'!AO37</f>
         <v>-7.2475464610796569E-2</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="50">
         <f>'main calculations'!AP37</f>
         <v>-3.8165271257813091E-2</v>
       </c>
@@ -39210,15 +40340,15 @@
         <f>'main calculations'!A38</f>
         <v>2038</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="50">
         <f>'main calculations'!AN38</f>
         <v>-6.9662562912685397E-2</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="50">
         <f>'main calculations'!AO38</f>
         <v>-7.8408079468823402E-2</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="50">
         <f>'main calculations'!AP38</f>
         <v>-4.1289360996880402E-2</v>
       </c>
@@ -39228,15 +40358,15 @@
         <f>'main calculations'!A39</f>
         <v>2039</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="50">
         <f>'main calculations'!AN39</f>
         <v>-7.4619943106511724E-2</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="50">
         <f>'main calculations'!AO39</f>
         <v>-8.398781475191798E-2</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="50">
         <f>'main calculations'!AP39</f>
         <v>-4.4227625853403611E-2</v>
       </c>
@@ -39246,15 +40376,15 @@
         <f>'main calculations'!A40</f>
         <v>2040</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="50">
         <f>'main calculations'!AN40</f>
         <v>-7.9265092527619693E-2</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="50">
         <f>'main calculations'!AO40</f>
         <v>-8.9216121459658557E-2</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="50">
         <f>'main calculations'!AP40</f>
         <v>-4.6980829917586148E-2</v>
       </c>
@@ -39264,15 +40394,15 @@
         <f>'main calculations'!A41</f>
         <v>2041</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="50">
         <f>'main calculations'!AN41</f>
         <v>-8.3607594265439858E-2</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="50">
         <f>'main calculations'!AO41</f>
         <v>-9.4103785753308938E-2</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="50">
         <f>'main calculations'!AP41</f>
         <v>-4.955465313605098E-2</v>
       </c>
@@ -39282,15 +40412,15 @@
         <f>'main calculations'!A42</f>
         <v>2042</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="50">
         <f>'main calculations'!AN42</f>
         <v>-8.7661380833664579E-2</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="50">
         <f>'main calculations'!AO42</f>
         <v>-9.866648925001209E-2</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="50">
         <f>'main calculations'!AP42</f>
         <v>-5.1957353381655295E-2</v>
       </c>
@@ -39300,15 +40430,15 @@
         <f>'main calculations'!A43</f>
         <v>2043</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="50">
         <f>'main calculations'!AN43</f>
         <v>-9.1442356915102843E-2</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="50">
         <f>'main calculations'!AO43</f>
         <v>-0.10292213332435819</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="50">
         <f>'main calculations'!AP43</f>
         <v>-5.4198357442082234E-2</v>
       </c>
@@ -39318,15 +40448,15 @@
         <f>'main calculations'!A44</f>
         <v>2044</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="50">
         <f>'main calculations'!AN44</f>
         <v>-9.4967026874705582E-2</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="50">
         <f>'main calculations'!AO44</f>
         <v>-0.10688929431785046</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="50">
         <f>'main calculations'!AP44</f>
         <v>-5.6287447539719121E-2</v>
       </c>
@@ -39336,15 +40466,15 @@
         <f>'main calculations'!A45</f>
         <v>2045</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="50">
         <f>'main calculations'!AN45</f>
         <v>-9.8251731614942911E-2</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="50">
         <f>'main calculations'!AO45</f>
         <v>-0.11058636458824746</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="50">
         <f>'main calculations'!AP45</f>
         <v>-5.8234309011896267E-2</v>
       </c>
@@ -39354,15 +40484,15 @@
         <f>'main calculations'!A46</f>
         <v>2046</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="50">
         <f>'main calculations'!AN46</f>
         <v>-0.10131224317881145</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="50">
         <f>'main calculations'!AO46</f>
         <v>-0.11403109621857567</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="50">
         <f>'main calculations'!AP46</f>
         <v>-6.0048290029994629E-2</v>
       </c>
@@ -39372,15 +40502,15 @@
         <f>'main calculations'!A47</f>
         <v>2047</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="50">
         <f>'main calculations'!AN47</f>
         <v>-0.10416356497196232</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="50">
         <f>'main calculations'!AO47</f>
         <v>-0.11724037615891865</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="50">
         <f>'main calculations'!AP47</f>
         <v>-6.1738283190068848E-2</v>
       </c>
@@ -39390,15 +40520,15 @@
         <f>'main calculations'!A48</f>
         <v>2048</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="50">
         <f>'main calculations'!AN48</f>
         <v>-0.10681984816073777</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="50">
         <f>'main calculations'!AO48</f>
         <v>-0.12023013212896894</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="50">
         <f>'main calculations'!AP48</f>
         <v>-6.3312675961531506E-2</v>
       </c>
@@ -39408,15 +40538,15 @@
         <f>'main calculations'!A49</f>
         <v>2049</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="50">
         <f>'main calculations'!AN49</f>
         <v>-0.10929437251290472</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="50">
         <f>'main calculations'!AO49</f>
         <v>-0.12301531105348586</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="50">
         <f>'main calculations'!AP49</f>
         <v>-6.4779339331356905E-2</v>
       </c>
@@ -39426,15 +40556,15 @@
         <f>'main calculations'!A50</f>
         <v>2050</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="50">
         <f>'main calculations'!AN50</f>
         <v>-0.11159956207207442</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="50">
         <f>'main calculations'!AO50</f>
         <v>-0.12560989670449935</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="50">
         <f>'main calculations'!AP50</f>
         <v>-6.6145637094390614E-2</v>
       </c>
@@ -39449,8 +40579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9F5C99-297F-455B-8409-37A26959CC03}">
   <dimension ref="B2:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -40005,8 +41135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0037047B-3B0E-4357-B58D-5DF02F4A16B7}">
   <dimension ref="B2:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="K11" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -40557,7 +41687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B22A7D-CB15-495D-A7EB-492094810166}">
   <dimension ref="B4:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G11" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
